--- a/Code/Results/Cases/Case_0_146/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_146/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.024196381559654</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.026840978457939</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.024433886502082</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.023269755880979</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.023759687082266</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.029372349630433</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.029662448937506</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.027262400386545</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.026101689068529</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.030834176437575</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.030133806621064</v>
+      </c>
+      <c r="D3">
+        <v>1.032691576955912</v>
+      </c>
+      <c r="E3">
+        <v>1.029613595881857</v>
+      </c>
+      <c r="F3">
+        <v>1.029109018327503</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.024310574347143</v>
+      </c>
+      <c r="J3">
+        <v>1.034922912464135</v>
+      </c>
+      <c r="K3">
+        <v>1.035307066491932</v>
+      </c>
+      <c r="L3">
+        <v>1.032237356959477</v>
+      </c>
+      <c r="M3">
+        <v>1.031734140477017</v>
+      </c>
+      <c r="N3">
+        <v>1.036392621707152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.033888388941975</v>
+      </c>
+      <c r="D4">
+        <v>1.036390940255491</v>
+      </c>
+      <c r="E4">
+        <v>1.032888800285287</v>
+      </c>
+      <c r="F4">
+        <v>1.032776749765066</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.024648503707255</v>
+      </c>
+      <c r="J4">
+        <v>1.038429384840835</v>
+      </c>
+      <c r="K4">
+        <v>1.038873916707425</v>
+      </c>
+      <c r="L4">
+        <v>1.035380658433934</v>
+      </c>
+      <c r="M4">
+        <v>1.035268893154445</v>
+      </c>
+      <c r="N4">
+        <v>1.039904073676824</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.035446887536865</v>
+      </c>
+      <c r="D5">
+        <v>1.037926440657203</v>
+      </c>
+      <c r="E5">
+        <v>1.034248254667847</v>
+      </c>
+      <c r="F5">
+        <v>1.034293254854312</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.024786250745901</v>
+      </c>
+      <c r="J5">
+        <v>1.039884062936151</v>
+      </c>
+      <c r="K5">
+        <v>1.04035387250742</v>
+      </c>
+      <c r="L5">
+        <v>1.036684783473181</v>
+      </c>
+      <c r="M5">
+        <v>1.036729671943597</v>
+      </c>
+      <c r="N5">
+        <v>1.04136081758189</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.035707424934184</v>
+      </c>
+      <c r="D6">
+        <v>1.038183128804059</v>
+      </c>
+      <c r="E6">
+        <v>1.034475513941733</v>
+      </c>
+      <c r="F6">
+        <v>1.034546422772366</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.024809129104236</v>
+      </c>
+      <c r="J6">
+        <v>1.040127195580044</v>
+      </c>
+      <c r="K6">
+        <v>1.04060124350895</v>
+      </c>
+      <c r="L6">
+        <v>1.036902759406757</v>
+      </c>
+      <c r="M6">
+        <v>1.036973492949346</v>
+      </c>
+      <c r="N6">
+        <v>1.041604295502025</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.033909290733967</v>
+      </c>
+      <c r="D7">
+        <v>1.036411533915065</v>
+      </c>
+      <c r="E7">
+        <v>1.032907032830582</v>
+      </c>
+      <c r="F7">
+        <v>1.032797111844776</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.024650361108797</v>
+      </c>
+      <c r="J7">
+        <v>1.038448897530908</v>
+      </c>
+      <c r="K7">
+        <v>1.038893767559511</v>
+      </c>
+      <c r="L7">
+        <v>1.035398151206415</v>
+      </c>
+      <c r="M7">
+        <v>1.035288509947349</v>
+      </c>
+      <c r="N7">
+        <v>1.039923614077156</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.026221655553537</v>
+      </c>
+      <c r="D8">
+        <v>1.028836700266723</v>
+      </c>
+      <c r="E8">
+        <v>1.026200747733377</v>
+      </c>
+      <c r="F8">
+        <v>1.025266752975894</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.023949773118059</v>
+      </c>
+      <c r="J8">
+        <v>1.031266394568728</v>
+      </c>
+      <c r="K8">
+        <v>1.031588386242231</v>
+      </c>
+      <c r="L8">
+        <v>1.028959932208018</v>
+      </c>
+      <c r="M8">
+        <v>1.028028604433435</v>
+      </c>
+      <c r="N8">
+        <v>1.032730911136924</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.011958405470628</v>
+      </c>
+      <c r="D9">
+        <v>1.014780321061017</v>
+      </c>
+      <c r="E9">
+        <v>1.01375655739153</v>
+      </c>
+      <c r="F9">
+        <v>1.011096647020969</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.0225674971538</v>
+      </c>
+      <c r="J9">
+        <v>1.017912431928995</v>
+      </c>
+      <c r="K9">
+        <v>1.018013710316609</v>
+      </c>
+      <c r="L9">
+        <v>1.016993445410024</v>
+      </c>
+      <c r="M9">
+        <v>1.014342661845494</v>
+      </c>
+      <c r="N9">
+        <v>1.019357984338522</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.001894224736937</v>
+      </c>
+      <c r="D10">
+        <v>1.004860604611437</v>
+      </c>
+      <c r="E10">
+        <v>1.004975003430127</v>
+      </c>
+      <c r="F10">
+        <v>1.000962449495076</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.021537616832946</v>
+      </c>
+      <c r="J10">
+        <v>1.008470713421398</v>
+      </c>
+      <c r="K10">
+        <v>1.008421278969347</v>
+      </c>
+      <c r="L10">
+        <v>1.008535240563057</v>
+      </c>
+      <c r="M10">
+        <v>1.004538088616628</v>
+      </c>
+      <c r="N10">
+        <v>1.009902857507664</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>0.9973859770982724</v>
+      </c>
+      <c r="D11">
+        <v>1.000416744450215</v>
+      </c>
+      <c r="E11">
+        <v>1.001041155146522</v>
+      </c>
+      <c r="F11">
+        <v>0.9963903451708813</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.021063659245631</v>
+      </c>
+      <c r="J11">
+        <v>1.004236707426727</v>
+      </c>
+      <c r="K11">
+        <v>1.004120975604164</v>
+      </c>
+      <c r="L11">
+        <v>1.004742886544821</v>
+      </c>
+      <c r="M11">
+        <v>1.000110779336247</v>
+      </c>
+      <c r="N11">
+        <v>1.005662838738833</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>0.9956870362131762</v>
+      </c>
+      <c r="D12">
+        <v>0.9987420221002984</v>
+      </c>
+      <c r="E12">
+        <v>0.9995586606146195</v>
+      </c>
+      <c r="F12">
+        <v>0.9946624306479868</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.020883179911848</v>
+      </c>
+      <c r="J12">
+        <v>1.002640420876142</v>
+      </c>
+      <c r="K12">
+        <v>1.002499889252628</v>
+      </c>
+      <c r="L12">
+        <v>1.003313202552393</v>
+      </c>
+      <c r="M12">
+        <v>0.9984370003990548</v>
+      </c>
+      <c r="N12">
+        <v>1.00406428527825</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>0.9960525985722821</v>
+      </c>
+      <c r="D13">
+        <v>0.999102375368683</v>
+      </c>
+      <c r="E13">
+        <v>0.9998776507196636</v>
+      </c>
+      <c r="F13">
+        <v>0.9950344494655328</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.02092209764698</v>
+      </c>
+      <c r="J13">
+        <v>1.002983926447872</v>
+      </c>
+      <c r="K13">
+        <v>1.002848722650702</v>
+      </c>
+      <c r="L13">
+        <v>1.003620852631929</v>
+      </c>
+      <c r="M13">
+        <v>0.9987973902884002</v>
+      </c>
+      <c r="N13">
+        <v>1.004408278667292</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>0.9972460503664831</v>
+      </c>
+      <c r="D14">
+        <v>1.000278813301815</v>
+      </c>
+      <c r="E14">
+        <v>1.000919055495496</v>
+      </c>
+      <c r="F14">
+        <v>0.9962481319952083</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.021048832512857</v>
+      </c>
+      <c r="J14">
+        <v>1.004105249546024</v>
+      </c>
+      <c r="K14">
+        <v>1.003987471425015</v>
+      </c>
+      <c r="L14">
+        <v>1.004625146875143</v>
+      </c>
+      <c r="M14">
+        <v>0.9999730335811203</v>
+      </c>
+      <c r="N14">
+        <v>1.005531194172861</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>0.9979780887482548</v>
+      </c>
+      <c r="D15">
+        <v>1.001000409767271</v>
+      </c>
+      <c r="E15">
+        <v>1.00155782935923</v>
+      </c>
+      <c r="F15">
+        <v>0.9969919320573074</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.021126323941629</v>
+      </c>
+      <c r="J15">
+        <v>1.004792954139346</v>
+      </c>
+      <c r="K15">
+        <v>1.004685888922661</v>
+      </c>
+      <c r="L15">
+        <v>1.005241090242212</v>
+      </c>
+      <c r="M15">
+        <v>1.000693444419324</v>
+      </c>
+      <c r="N15">
+        <v>1.006219875385586</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.002190105733751</v>
+      </c>
+      <c r="D16">
+        <v>1.005152253269406</v>
+      </c>
+      <c r="E16">
+        <v>1.005233183305656</v>
+      </c>
+      <c r="F16">
+        <v>1.001261843993578</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.021568463240585</v>
+      </c>
+      <c r="J16">
+        <v>1.008748499891969</v>
+      </c>
+      <c r="K16">
+        <v>1.008703442010426</v>
+      </c>
+      <c r="L16">
+        <v>1.008784063700342</v>
+      </c>
+      <c r="M16">
+        <v>1.004827920546511</v>
+      </c>
+      <c r="N16">
+        <v>1.010181038466886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.004790726995574</v>
+      </c>
+      <c r="D17">
+        <v>1.007715638171353</v>
+      </c>
+      <c r="E17">
+        <v>1.007502417006887</v>
+      </c>
+      <c r="F17">
+        <v>1.003889657498216</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.021838156394656</v>
+      </c>
+      <c r="J17">
+        <v>1.01118955953644</v>
+      </c>
+      <c r="K17">
+        <v>1.011183107169378</v>
+      </c>
+      <c r="L17">
+        <v>1.010970676090742</v>
+      </c>
+      <c r="M17">
+        <v>1.007371360043892</v>
+      </c>
+      <c r="N17">
+        <v>1.012625564696046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.006293244590596</v>
+      </c>
+      <c r="D18">
+        <v>1.009196611389408</v>
+      </c>
+      <c r="E18">
+        <v>1.008813459445737</v>
+      </c>
+      <c r="F18">
+        <v>1.005404815713935</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.021992777220805</v>
+      </c>
+      <c r="J18">
+        <v>1.012599456240146</v>
+      </c>
+      <c r="K18">
+        <v>1.012615423006203</v>
+      </c>
+      <c r="L18">
+        <v>1.012233667686872</v>
+      </c>
+      <c r="M18">
+        <v>1.008837500575557</v>
+      </c>
+      <c r="N18">
+        <v>1.014037463614788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.006803176201886</v>
+      </c>
+      <c r="D19">
+        <v>1.009699225835062</v>
+      </c>
+      <c r="E19">
+        <v>1.009258404609441</v>
+      </c>
+      <c r="F19">
+        <v>1.005918517395619</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.02204504958657</v>
+      </c>
+      <c r="J19">
+        <v>1.013077880301397</v>
+      </c>
+      <c r="K19">
+        <v>1.013101475173143</v>
+      </c>
+      <c r="L19">
+        <v>1.012662251749685</v>
+      </c>
+      <c r="M19">
+        <v>1.009334520575764</v>
+      </c>
+      <c r="N19">
+        <v>1.014516567093082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.004513204714269</v>
+      </c>
+      <c r="D20">
+        <v>1.007442092717805</v>
+      </c>
+      <c r="E20">
+        <v>1.0072602598701</v>
+      </c>
+      <c r="F20">
+        <v>1.003609552299843</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.021809500290574</v>
+      </c>
+      <c r="J20">
+        <v>1.010929109736416</v>
+      </c>
+      <c r="K20">
+        <v>1.010918525708472</v>
+      </c>
+      <c r="L20">
+        <v>1.010737368666308</v>
+      </c>
+      <c r="M20">
+        <v>1.007100286789818</v>
+      </c>
+      <c r="N20">
+        <v>1.012364745027432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>0.9968952967331067</v>
+      </c>
+      <c r="D21">
+        <v>0.9999330612569266</v>
+      </c>
+      <c r="E21">
+        <v>1.000612988662847</v>
+      </c>
+      <c r="F21">
+        <v>0.9958915678217727</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.021011636454208</v>
+      </c>
+      <c r="J21">
+        <v>1.003775713550207</v>
+      </c>
+      <c r="K21">
+        <v>1.003652808959867</v>
+      </c>
+      <c r="L21">
+        <v>1.004330000916957</v>
+      </c>
+      <c r="M21">
+        <v>0.999627660932263</v>
+      </c>
+      <c r="N21">
+        <v>1.005201190198133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>0.9919635541403971</v>
+      </c>
+      <c r="D22">
+        <v>0.9950715371986566</v>
+      </c>
+      <c r="E22">
+        <v>0.9963095287663976</v>
+      </c>
+      <c r="F22">
+        <v>0.9908663766372717</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.02048422720388</v>
+      </c>
+      <c r="J22">
+        <v>0.999140637932962</v>
+      </c>
+      <c r="K22">
+        <v>0.9989460958512333</v>
+      </c>
+      <c r="L22">
+        <v>1.000178860618706</v>
+      </c>
+      <c r="M22">
+        <v>0.9947587985689416</v>
+      </c>
+      <c r="N22">
+        <v>1.00055953224186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>0.994592075325886</v>
+      </c>
+      <c r="D23">
+        <v>0.9976626573774279</v>
+      </c>
+      <c r="E23">
+        <v>0.998603194572753</v>
+      </c>
+      <c r="F23">
+        <v>0.9935474091052648</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.020766339070167</v>
+      </c>
+      <c r="J23">
+        <v>1.001611424114474</v>
+      </c>
+      <c r="K23">
+        <v>1.001454961368928</v>
+      </c>
+      <c r="L23">
+        <v>1.002391627342696</v>
+      </c>
+      <c r="M23">
+        <v>0.9973567475358771</v>
+      </c>
+      <c r="N23">
+        <v>1.003033827223153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.0046386493967</v>
+      </c>
+      <c r="D24">
+        <v>1.007565739904242</v>
+      </c>
+      <c r="E24">
+        <v>1.007369718966225</v>
+      </c>
+      <c r="F24">
+        <v>1.003736174026227</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.021822457036532</v>
+      </c>
+      <c r="J24">
+        <v>1.011046838718729</v>
+      </c>
+      <c r="K24">
+        <v>1.011038121914527</v>
+      </c>
+      <c r="L24">
+        <v>1.010842828525537</v>
+      </c>
+      <c r="M24">
+        <v>1.007222826765947</v>
+      </c>
+      <c r="N24">
+        <v>1.012482641198403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.015737875074731</v>
+      </c>
+      <c r="D25">
+        <v>1.018505242141404</v>
+      </c>
+      <c r="E25">
+        <v>1.01705418733322</v>
+      </c>
+      <c r="F25">
+        <v>1.01487464625994</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.022943232266886</v>
+      </c>
+      <c r="J25">
+        <v>1.021454226741732</v>
+      </c>
+      <c r="K25">
+        <v>1.021613134669455</v>
+      </c>
+      <c r="L25">
+        <v>1.02016681872385</v>
+      </c>
+      <c r="M25">
+        <v>1.017994423524939</v>
+      </c>
+      <c r="N25">
+        <v>1.022904808906143</v>
       </c>
     </row>
   </sheetData>
